--- a/Trabajo/software/results_branch/results_cec2017_30.xlsx
+++ b/Trabajo/software/results_branch/results_cec2017_30.xlsx
@@ -539,94 +539,94 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5476337800</v>
+        <v>7228542600</v>
       </c>
       <c r="E2" t="n">
-        <v>745261988.3</v>
+        <v>1253801741500</v>
       </c>
       <c r="F2" t="n">
-        <v>8002.236999999999</v>
+        <v>14931.8288</v>
       </c>
       <c r="G2" t="n">
-        <v>202.235035</v>
+        <v>705.83293</v>
       </c>
       <c r="H2" t="n">
-        <v>164.704035</v>
+        <v>69.282163</v>
       </c>
       <c r="I2" t="n">
-        <v>61.13845100000001</v>
+        <v>60.466613</v>
       </c>
       <c r="J2" t="n">
-        <v>497.49101</v>
+        <v>410.78107</v>
       </c>
       <c r="K2" t="n">
-        <v>87.176655</v>
+        <v>64.38911399999999</v>
       </c>
       <c r="L2" t="n">
-        <v>1616.486</v>
+        <v>1267.12174</v>
       </c>
       <c r="M2" t="n">
-        <v>1071.9807</v>
+        <v>1072.95406</v>
       </c>
       <c r="N2" t="n">
-        <v>98.646095</v>
+        <v>797.9958260000001</v>
       </c>
       <c r="O2" t="n">
-        <v>3067316.9</v>
+        <v>82238359.677</v>
       </c>
       <c r="P2" t="n">
-        <v>2625.4717</v>
+        <v>5488.593040000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.950097</v>
+        <v>188.227995</v>
       </c>
       <c r="R2" t="n">
-        <v>3791.52341</v>
+        <v>3978.73395</v>
       </c>
       <c r="S2" t="n">
-        <v>345.62681</v>
+        <v>439.0569100000001</v>
       </c>
       <c r="T2" t="n">
-        <v>93.02754999999999</v>
+        <v>139.186411</v>
       </c>
       <c r="U2" t="n">
-        <v>5279.10213</v>
+        <v>4558.300000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>4016.249770000001</v>
+        <v>3722.500949999999</v>
       </c>
       <c r="W2" t="n">
-        <v>235.61186</v>
+        <v>208.346877</v>
       </c>
       <c r="X2" t="n">
-        <v>275.57869</v>
+        <v>264.1222</v>
       </c>
       <c r="Y2" t="n">
-        <v>938.64336</v>
+        <v>1182.30648</v>
       </c>
       <c r="Z2" t="n">
-        <v>462.5659699999999</v>
+        <v>451.24866</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.05977</v>
+        <v>429.6627999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>630.8406600000001</v>
+        <v>805.53621</v>
       </c>
       <c r="AC2" t="n">
-        <v>1006.62464</v>
+        <v>1397.21843</v>
       </c>
       <c r="AD2" t="n">
-        <v>502.35233</v>
+        <v>520.2679900000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>556.65795</v>
+        <v>802.6557</v>
       </c>
       <c r="AF2" t="n">
-        <v>416.70415</v>
+        <v>472.9426100000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>1961838.816</v>
+        <v>5310163.715</v>
       </c>
     </row>
     <row r="3">
@@ -640,94 +640,94 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>147275400000</v>
+        <v>187650090000</v>
       </c>
       <c r="E3" t="n">
-        <v>4.956433256046127e+60</v>
+        <v>4.529776684434268e+67</v>
       </c>
       <c r="F3" t="n">
-        <v>221541.264</v>
+        <v>156291449863.1</v>
       </c>
       <c r="G3" t="n">
-        <v>64074.15500000001</v>
+        <v>83658.401</v>
       </c>
       <c r="H3" t="n">
-        <v>704.90248</v>
+        <v>701.45586</v>
       </c>
       <c r="I3" t="n">
-        <v>101.996504</v>
+        <v>103.804587</v>
       </c>
       <c r="J3" t="n">
-        <v>4196.8991</v>
+        <v>4282.387000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>655.95215</v>
+        <v>653.88633</v>
       </c>
       <c r="L3" t="n">
-        <v>28720.755</v>
+        <v>24473.707</v>
       </c>
       <c r="M3" t="n">
-        <v>5668.2011</v>
+        <v>5550.1256</v>
       </c>
       <c r="N3" t="n">
-        <v>399678976.7117</v>
+        <v>68749666.14999999</v>
       </c>
       <c r="O3" t="n">
-        <v>33708215000</v>
+        <v>36736245000</v>
       </c>
       <c r="P3" t="n">
-        <v>33865814000</v>
+        <v>47175310000</v>
       </c>
       <c r="Q3" t="n">
-        <v>866272076</v>
+        <v>660764113</v>
       </c>
       <c r="R3" t="n">
-        <v>9105875307.43</v>
+        <v>13879336300</v>
       </c>
       <c r="S3" t="n">
-        <v>20633.942</v>
+        <v>23546.256</v>
       </c>
       <c r="T3" t="n">
-        <v>500927.7398999999</v>
+        <v>436596.757</v>
       </c>
       <c r="U3" t="n">
-        <v>453529326.7600001</v>
+        <v>2494896921</v>
       </c>
       <c r="V3" t="n">
-        <v>1999466801.4</v>
+        <v>11370525000</v>
       </c>
       <c r="W3" t="n">
-        <v>1430.0451</v>
+        <v>1436.1201</v>
       </c>
       <c r="X3" t="n">
-        <v>992.51081</v>
+        <v>941.2868099999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>6158.1052</v>
+        <v>6099.4923</v>
       </c>
       <c r="Z3" t="n">
-        <v>2506.9272</v>
+        <v>2535.0773</v>
       </c>
       <c r="AA3" t="n">
-        <v>2556.175199999999</v>
+        <v>2728.5146</v>
       </c>
       <c r="AB3" t="n">
-        <v>15477.6192</v>
+        <v>23596.158</v>
       </c>
       <c r="AC3" t="n">
-        <v>18625.103</v>
+        <v>21584.179</v>
       </c>
       <c r="AD3" t="n">
-        <v>5359.1613</v>
+        <v>6184.0038</v>
       </c>
       <c r="AE3" t="n">
-        <v>11045.3003</v>
+        <v>14417.881</v>
       </c>
       <c r="AF3" t="n">
-        <v>1108008.7528</v>
+        <v>2035041.3792</v>
       </c>
       <c r="AG3" t="n">
-        <v>4822607140</v>
+        <v>7280366860</v>
       </c>
     </row>
     <row r="4">
@@ -741,94 +741,94 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>147275400000</v>
+        <v>151921980000</v>
       </c>
       <c r="E4" t="n">
-        <v>8.53045617965e+56</v>
+        <v>4.529776684434268e+67</v>
       </c>
       <c r="F4" t="n">
-        <v>203757.619</v>
+        <v>2523963649.48</v>
       </c>
       <c r="G4" t="n">
-        <v>64074.15500000001</v>
+        <v>62739.433</v>
       </c>
       <c r="H4" t="n">
-        <v>703.27868</v>
+        <v>700.2362499999999</v>
       </c>
       <c r="I4" t="n">
-        <v>100.114558</v>
+        <v>102.122106</v>
       </c>
       <c r="J4" t="n">
-        <v>4042.0136</v>
+        <v>4259.888799999999</v>
       </c>
       <c r="K4" t="n">
-        <v>653.5414500000001</v>
+        <v>652.6963400000001</v>
       </c>
       <c r="L4" t="n">
-        <v>27416.158</v>
+        <v>21711.527</v>
       </c>
       <c r="M4" t="n">
-        <v>5590.2913</v>
+        <v>5457.651999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>399678976.7117</v>
+        <v>803747.5481</v>
       </c>
       <c r="O4" t="n">
-        <v>33708215000</v>
+        <v>32062088000</v>
       </c>
       <c r="P4" t="n">
-        <v>31034705000</v>
+        <v>37184730000</v>
       </c>
       <c r="Q4" t="n">
-        <v>762872276.1</v>
+        <v>199542580.5</v>
       </c>
       <c r="R4" t="n">
-        <v>8387399404.37</v>
+        <v>10465079600</v>
       </c>
       <c r="S4" t="n">
-        <v>20520.634</v>
+        <v>11737.9148</v>
       </c>
       <c r="T4" t="n">
-        <v>305946.2498999999</v>
+        <v>138798.609</v>
       </c>
       <c r="U4" t="n">
-        <v>427710808.55</v>
+        <v>1096853391</v>
       </c>
       <c r="V4" t="n">
-        <v>1998631973.6</v>
+        <v>9609165200</v>
       </c>
       <c r="W4" t="n">
-        <v>1419.7341</v>
+        <v>1422.1411</v>
       </c>
       <c r="X4" t="n">
-        <v>989.0415599999999</v>
+        <v>836.14097</v>
       </c>
       <c r="Y4" t="n">
-        <v>6050.700500000001</v>
+        <v>6044.6894</v>
       </c>
       <c r="Z4" t="n">
-        <v>2462.2824</v>
+        <v>2509.2333</v>
       </c>
       <c r="AA4" t="n">
-        <v>2556.175199999999</v>
+        <v>2462.1648</v>
       </c>
       <c r="AB4" t="n">
-        <v>14787.5742</v>
+        <v>17737.4888</v>
       </c>
       <c r="AC4" t="n">
-        <v>18622.409</v>
+        <v>14971.2196</v>
       </c>
       <c r="AD4" t="n">
-        <v>5338.579</v>
+        <v>5754.7813</v>
       </c>
       <c r="AE4" t="n">
-        <v>11045.3003</v>
+        <v>12781.7764</v>
       </c>
       <c r="AF4" t="n">
-        <v>1043037.463</v>
+        <v>300622.1822</v>
       </c>
       <c r="AG4" t="n">
-        <v>4673595740</v>
+        <v>6225168380</v>
       </c>
     </row>
     <row r="5">
@@ -842,94 +842,94 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>113047691000</v>
+        <v>138787530000</v>
       </c>
       <c r="E5" t="n">
-        <v>1.6860008499171e+55</v>
+        <v>2.722538999824311e+67</v>
       </c>
       <c r="F5" t="n">
-        <v>199695.712</v>
+        <v>230039.98</v>
       </c>
       <c r="G5" t="n">
-        <v>40643.68000000001</v>
+        <v>55022.94</v>
       </c>
       <c r="H5" t="n">
-        <v>702.9483399999999</v>
+        <v>699.7844099999999</v>
       </c>
       <c r="I5" t="n">
-        <v>99.41489999999999</v>
+        <v>101.427464</v>
       </c>
       <c r="J5" t="n">
-        <v>4018.9339</v>
+        <v>4248.3986</v>
       </c>
       <c r="K5" t="n">
-        <v>653.2681300000002</v>
+        <v>652.29955</v>
       </c>
       <c r="L5" t="n">
-        <v>26472.83000000001</v>
+        <v>20210.36</v>
       </c>
       <c r="M5" t="n">
-        <v>5546.193799999999</v>
+        <v>5414.423</v>
       </c>
       <c r="N5" t="n">
-        <v>19982.6157</v>
+        <v>803188.6011000001</v>
       </c>
       <c r="O5" t="n">
-        <v>23509041500</v>
+        <v>28525481000</v>
       </c>
       <c r="P5" t="n">
-        <v>24017149600</v>
+        <v>23725437000</v>
       </c>
       <c r="Q5" t="n">
-        <v>27697378.797</v>
+        <v>121440202.3</v>
       </c>
       <c r="R5" t="n">
-        <v>3055400834.37</v>
+        <v>8376302700</v>
       </c>
       <c r="S5" t="n">
-        <v>6866.767900000001</v>
+        <v>11297.0359</v>
       </c>
       <c r="T5" t="n">
-        <v>254847.3544999999</v>
+        <v>44381.199</v>
       </c>
       <c r="U5" t="n">
-        <v>263107759.77</v>
+        <v>268029870</v>
       </c>
       <c r="V5" t="n">
-        <v>1608547533.8</v>
+        <v>9609165200</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.2601</v>
+        <v>1417.8437</v>
       </c>
       <c r="X5" t="n">
-        <v>940.03292</v>
+        <v>835.43817</v>
       </c>
       <c r="Y5" t="n">
-        <v>5974.1756</v>
+        <v>6022.878500000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>2452.7312</v>
+        <v>2496.9808</v>
       </c>
       <c r="AA5" t="n">
-        <v>1962.1941</v>
+        <v>2100.6587</v>
       </c>
       <c r="AB5" t="n">
-        <v>9989.6492</v>
+        <v>15353.1629</v>
       </c>
       <c r="AC5" t="n">
-        <v>15913.601</v>
+        <v>13891.5252</v>
       </c>
       <c r="AD5" t="n">
-        <v>5326.117099999999</v>
+        <v>5737.9802</v>
       </c>
       <c r="AE5" t="n">
-        <v>8045.020600000001</v>
+        <v>12117.3695</v>
       </c>
       <c r="AF5" t="n">
-        <v>55434.6168</v>
+        <v>245343.3381000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>2526519180</v>
+        <v>4147385280</v>
       </c>
     </row>
     <row r="6">
@@ -943,94 +943,94 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>100548406000</v>
+        <v>129170450000</v>
       </c>
       <c r="E6" t="n">
-        <v>3.510677297527491e+54</v>
+        <v>2.357574375412282e+63</v>
       </c>
       <c r="F6" t="n">
-        <v>198812.835</v>
+        <v>215176.94</v>
       </c>
       <c r="G6" t="n">
-        <v>26476.954</v>
+        <v>45941.06</v>
       </c>
       <c r="H6" t="n">
-        <v>702.37658</v>
+        <v>699.47158</v>
       </c>
       <c r="I6" t="n">
-        <v>99.022305</v>
+        <v>100.763893</v>
       </c>
       <c r="J6" t="n">
-        <v>3974.2378</v>
+        <v>4238.6056</v>
       </c>
       <c r="K6" t="n">
-        <v>653.10942</v>
+        <v>652.0021200000001</v>
       </c>
       <c r="L6" t="n">
-        <v>25735.934</v>
+        <v>19054.172</v>
       </c>
       <c r="M6" t="n">
-        <v>5536.752100000001</v>
+        <v>5387.936300000001</v>
       </c>
       <c r="N6" t="n">
-        <v>17702.1837</v>
+        <v>25239.4461</v>
       </c>
       <c r="O6" t="n">
-        <v>18311375400</v>
+        <v>26082511000</v>
       </c>
       <c r="P6" t="n">
-        <v>11214921480</v>
+        <v>22074123000</v>
       </c>
       <c r="Q6" t="n">
-        <v>7607112.757000001</v>
+        <v>73212206.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1317483390.57</v>
+        <v>6315840800</v>
       </c>
       <c r="S6" t="n">
-        <v>4971.261799999999</v>
+        <v>6664.4193</v>
       </c>
       <c r="T6" t="n">
-        <v>14813.22626</v>
+        <v>38095.329</v>
       </c>
       <c r="U6" t="n">
-        <v>159205469.33</v>
+        <v>249882484</v>
       </c>
       <c r="V6" t="n">
-        <v>886366932.5</v>
+        <v>7160179700</v>
       </c>
       <c r="W6" t="n">
-        <v>1414.8488</v>
+        <v>1415.4565</v>
       </c>
       <c r="X6" t="n">
-        <v>936.3915799999999</v>
+        <v>774.08752</v>
       </c>
       <c r="Y6" t="n">
-        <v>5960.161099999999</v>
+        <v>6000.8703</v>
       </c>
       <c r="Z6" t="n">
-        <v>2439.1156</v>
+        <v>2486.7422</v>
       </c>
       <c r="AA6" t="n">
-        <v>1752.9126</v>
+        <v>1856.168</v>
       </c>
       <c r="AB6" t="n">
-        <v>7035.9921</v>
+        <v>12524.7213</v>
       </c>
       <c r="AC6" t="n">
-        <v>14131.576</v>
+        <v>12052.5294</v>
       </c>
       <c r="AD6" t="n">
-        <v>5183.592299999999</v>
+        <v>5669.796199999999</v>
       </c>
       <c r="AE6" t="n">
-        <v>6008.906800000002</v>
+        <v>10610.4791</v>
       </c>
       <c r="AF6" t="n">
-        <v>5769.290900000001</v>
+        <v>110181.5282</v>
       </c>
       <c r="AG6" t="n">
-        <v>1472985320</v>
+        <v>3571662880</v>
       </c>
     </row>
     <row r="7">
@@ -1044,94 +1044,94 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>80662902000</v>
+        <v>109528171000</v>
       </c>
       <c r="E7" t="n">
-        <v>3.911687240777439e+50</v>
+        <v>1.693127647394075e+58</v>
       </c>
       <c r="F7" t="n">
-        <v>165119.495</v>
+        <v>182060.42</v>
       </c>
       <c r="G7" t="n">
-        <v>21218.4054</v>
+        <v>40442.86</v>
       </c>
       <c r="H7" t="n">
-        <v>701.87924</v>
+        <v>611.89762</v>
       </c>
       <c r="I7" t="n">
-        <v>98.68902299999999</v>
+        <v>93.291326</v>
       </c>
       <c r="J7" t="n">
-        <v>3957.839799999999</v>
+        <v>3662.6911</v>
       </c>
       <c r="K7" t="n">
-        <v>652.5466399999999</v>
+        <v>539.5268100000001</v>
       </c>
       <c r="L7" t="n">
-        <v>24420.08</v>
+        <v>16854.922</v>
       </c>
       <c r="M7" t="n">
-        <v>5521.003900000001</v>
+        <v>5011.9115</v>
       </c>
       <c r="N7" t="n">
-        <v>12125.6372</v>
+        <v>18137.5461</v>
       </c>
       <c r="O7" t="n">
-        <v>11286112700</v>
+        <v>24992237000</v>
       </c>
       <c r="P7" t="n">
-        <v>4778365662.48</v>
+        <v>13005311200</v>
       </c>
       <c r="Q7" t="n">
-        <v>4118599.101</v>
+        <v>4465399.959000001</v>
       </c>
       <c r="R7" t="n">
-        <v>174806890.597</v>
+        <v>3587022300</v>
       </c>
       <c r="S7" t="n">
-        <v>3595.0623</v>
+        <v>2955.919800000001</v>
       </c>
       <c r="T7" t="n">
-        <v>6139.93622</v>
+        <v>20825.7792</v>
       </c>
       <c r="U7" t="n">
-        <v>2969857.51</v>
+        <v>131015958.6</v>
       </c>
       <c r="V7" t="n">
-        <v>506730990.7</v>
+        <v>4007180400</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.5025</v>
+        <v>1287.6403</v>
       </c>
       <c r="X7" t="n">
-        <v>904.2369699999999</v>
+        <v>709.9446</v>
       </c>
       <c r="Y7" t="n">
-        <v>5946.3395</v>
+        <v>5656.5339</v>
       </c>
       <c r="Z7" t="n">
-        <v>2435.7653</v>
+        <v>2095.0225</v>
       </c>
       <c r="AA7" t="n">
-        <v>1558.6986</v>
+        <v>1809.8415</v>
       </c>
       <c r="AB7" t="n">
-        <v>4516.7149</v>
+        <v>12342.2013</v>
       </c>
       <c r="AC7" t="n">
-        <v>12367.6607</v>
+        <v>11878.6748</v>
       </c>
       <c r="AD7" t="n">
-        <v>4409.7447</v>
+        <v>3237.7613</v>
       </c>
       <c r="AE7" t="n">
-        <v>4029.4575</v>
+        <v>8587.023299999999</v>
       </c>
       <c r="AF7" t="n">
-        <v>4689.420700000001</v>
+        <v>8084.600100000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>789312804</v>
+        <v>1936617700</v>
       </c>
     </row>
     <row r="8">
@@ -1145,94 +1145,94 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>67370188000</v>
+        <v>102593698000</v>
       </c>
       <c r="E8" t="n">
-        <v>2.51092535883824e+47</v>
+        <v>8.557025830356171e+57</v>
       </c>
       <c r="F8" t="n">
-        <v>124289.16</v>
+        <v>151123.72</v>
       </c>
       <c r="G8" t="n">
-        <v>13964.2382</v>
+        <v>34049.197</v>
       </c>
       <c r="H8" t="n">
-        <v>675.85812</v>
+        <v>527.5669799999999</v>
       </c>
       <c r="I8" t="n">
-        <v>97.11731999999999</v>
+        <v>90.253765</v>
       </c>
       <c r="J8" t="n">
-        <v>3291.381600000001</v>
+        <v>3111.6885</v>
       </c>
       <c r="K8" t="n">
-        <v>650.46588</v>
+        <v>437.96824</v>
       </c>
       <c r="L8" t="n">
-        <v>20499.57</v>
+        <v>14404.733</v>
       </c>
       <c r="M8" t="n">
-        <v>5251.626599999999</v>
+        <v>4596.0928</v>
       </c>
       <c r="N8" t="n">
-        <v>7968.87295</v>
+        <v>15185.0507</v>
       </c>
       <c r="O8" t="n">
-        <v>10024490500</v>
+        <v>20310088000</v>
       </c>
       <c r="P8" t="n">
-        <v>3629369228.48</v>
+        <v>11009253800</v>
       </c>
       <c r="Q8" t="n">
-        <v>739316.3060000001</v>
+        <v>2441222.078999999</v>
       </c>
       <c r="R8" t="n">
-        <v>141340303.843</v>
+        <v>2335013289.783</v>
       </c>
       <c r="S8" t="n">
-        <v>3013.0567</v>
+        <v>2648.5106</v>
       </c>
       <c r="T8" t="n">
-        <v>2270.69215</v>
+        <v>2269.02079</v>
       </c>
       <c r="U8" t="n">
-        <v>2348567.37</v>
+        <v>35897649.8</v>
       </c>
       <c r="V8" t="n">
-        <v>257736022.3</v>
+        <v>2525138420</v>
       </c>
       <c r="W8" t="n">
-        <v>1326.8749</v>
+        <v>1041.86541</v>
       </c>
       <c r="X8" t="n">
-        <v>800.83545</v>
+        <v>658.4378800000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>5765.018099999999</v>
+        <v>5474.2262</v>
       </c>
       <c r="Z8" t="n">
-        <v>2237.6885</v>
+        <v>1925.7686</v>
       </c>
       <c r="AA8" t="n">
-        <v>1499.6739</v>
+        <v>1669.7041</v>
       </c>
       <c r="AB8" t="n">
-        <v>4098.173200000001</v>
+        <v>10524.3484</v>
       </c>
       <c r="AC8" t="n">
-        <v>10489.7704</v>
+        <v>10320.6033</v>
       </c>
       <c r="AD8" t="n">
-        <v>3190.7486</v>
+        <v>2785.2842</v>
       </c>
       <c r="AE8" t="n">
-        <v>4027.9802</v>
+        <v>7948.7672</v>
       </c>
       <c r="AF8" t="n">
-        <v>3456.8264</v>
+        <v>6871.416099999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>521269595.4</v>
+        <v>1484223750</v>
       </c>
     </row>
     <row r="9">
@@ -1246,94 +1246,94 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>63574736000</v>
+        <v>99316127000</v>
       </c>
       <c r="E9" t="n">
-        <v>1.140151256451795e+46</v>
+        <v>1.875150002529317e+57</v>
       </c>
       <c r="F9" t="n">
-        <v>118708.96</v>
+        <v>150413.56</v>
       </c>
       <c r="G9" t="n">
-        <v>13964.2382</v>
+        <v>32851.957</v>
       </c>
       <c r="H9" t="n">
-        <v>608.0649100000001</v>
+        <v>518.4638699999999</v>
       </c>
       <c r="I9" t="n">
-        <v>94.22279899999999</v>
+        <v>90.117683</v>
       </c>
       <c r="J9" t="n">
-        <v>3101.842</v>
+        <v>3039.79</v>
       </c>
       <c r="K9" t="n">
-        <v>628.96594</v>
+        <v>404.87515</v>
       </c>
       <c r="L9" t="n">
-        <v>18168.842</v>
+        <v>12895.5603</v>
       </c>
       <c r="M9" t="n">
-        <v>5031.8015</v>
+        <v>4395.7017</v>
       </c>
       <c r="N9" t="n">
-        <v>5427.410150000001</v>
+        <v>14667.4907</v>
       </c>
       <c r="O9" t="n">
-        <v>8399637500</v>
+        <v>19543646000</v>
       </c>
       <c r="P9" t="n">
-        <v>3629369228.48</v>
+        <v>11009253800</v>
       </c>
       <c r="Q9" t="n">
-        <v>91681.82399999999</v>
+        <v>1199615.648</v>
       </c>
       <c r="R9" t="n">
-        <v>141339530.994</v>
+        <v>1965698689.783</v>
       </c>
       <c r="S9" t="n">
-        <v>2347.4975</v>
+        <v>2571.5819</v>
       </c>
       <c r="T9" t="n">
-        <v>1041.1717</v>
+        <v>1789.04849</v>
       </c>
       <c r="U9" t="n">
-        <v>660111.63</v>
+        <v>29848368</v>
       </c>
       <c r="V9" t="n">
-        <v>67249964.877</v>
+        <v>2300331920</v>
       </c>
       <c r="W9" t="n">
-        <v>1070.43779</v>
+        <v>1010.31158</v>
       </c>
       <c r="X9" t="n">
-        <v>730.5242500000001</v>
+        <v>651.0174999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>5399.780199999999</v>
+        <v>5181.3857</v>
       </c>
       <c r="Z9" t="n">
-        <v>1923.7386</v>
+        <v>1617.7128</v>
       </c>
       <c r="AA9" t="n">
-        <v>1456.6813</v>
+        <v>1492.4788</v>
       </c>
       <c r="AB9" t="n">
-        <v>3569.4451</v>
+        <v>9941.5391</v>
       </c>
       <c r="AC9" t="n">
-        <v>8896.949499999999</v>
+        <v>9351.146100000002</v>
       </c>
       <c r="AD9" t="n">
-        <v>2370.0997</v>
+        <v>2432.4088</v>
       </c>
       <c r="AE9" t="n">
-        <v>4027.9802</v>
+        <v>6719.3276</v>
       </c>
       <c r="AF9" t="n">
-        <v>2933.5856</v>
+        <v>3642.9674</v>
       </c>
       <c r="AG9" t="n">
-        <v>505763275.4</v>
+        <v>1279801925</v>
       </c>
     </row>
     <row r="10">
@@ -1347,94 +1347,94 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>55250949000</v>
+        <v>96242354000</v>
       </c>
       <c r="E10" t="n">
-        <v>7.01105442531795e+45</v>
+        <v>1.630430244463685e+53</v>
       </c>
       <c r="F10" t="n">
-        <v>105520.588</v>
+        <v>148650.63</v>
       </c>
       <c r="G10" t="n">
-        <v>13964.2382</v>
+        <v>31445.52599999999</v>
       </c>
       <c r="H10" t="n">
-        <v>513.02907</v>
+        <v>505.0127899999999</v>
       </c>
       <c r="I10" t="n">
-        <v>88.449691</v>
+        <v>87.410489</v>
       </c>
       <c r="J10" t="n">
-        <v>3000.6282</v>
+        <v>2945.8562</v>
       </c>
       <c r="K10" t="n">
-        <v>586.69134</v>
+        <v>391.5223</v>
       </c>
       <c r="L10" t="n">
-        <v>17220.482</v>
+        <v>12245.3763</v>
       </c>
       <c r="M10" t="n">
-        <v>4750.5976</v>
+        <v>4318.349099999999</v>
       </c>
       <c r="N10" t="n">
-        <v>5427.410150000001</v>
+        <v>12956.2352</v>
       </c>
       <c r="O10" t="n">
-        <v>7105295200</v>
+        <v>17570792200</v>
       </c>
       <c r="P10" t="n">
-        <v>2389509238.48</v>
+        <v>10311171800</v>
       </c>
       <c r="Q10" t="n">
-        <v>81084.7838</v>
+        <v>492361.325</v>
       </c>
       <c r="R10" t="n">
-        <v>136514505.754</v>
+        <v>1205035179.783</v>
       </c>
       <c r="S10" t="n">
-        <v>2298.9587</v>
+        <v>2479.5364</v>
       </c>
       <c r="T10" t="n">
-        <v>986.21485</v>
+        <v>1661.88779</v>
       </c>
       <c r="U10" t="n">
-        <v>525494.9400000001</v>
+        <v>19316940.11</v>
       </c>
       <c r="V10" t="n">
-        <v>67249964.877</v>
+        <v>1916383850</v>
       </c>
       <c r="W10" t="n">
-        <v>1032.96531</v>
+        <v>930.4766800000001</v>
       </c>
       <c r="X10" t="n">
-        <v>718.5320899999999</v>
+        <v>627.2243499999998</v>
       </c>
       <c r="Y10" t="n">
-        <v>5226.9665</v>
+        <v>5172.6066</v>
       </c>
       <c r="Z10" t="n">
-        <v>1548.0225</v>
+        <v>1514.9626</v>
       </c>
       <c r="AA10" t="n">
-        <v>1340.7371</v>
+        <v>1440.8843</v>
       </c>
       <c r="AB10" t="n">
-        <v>3569.4451</v>
+        <v>8657.295200000002</v>
       </c>
       <c r="AC10" t="n">
-        <v>8597.773299999999</v>
+        <v>8830.763700000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>1970.4543</v>
+        <v>2269.8062</v>
       </c>
       <c r="AE10" t="n">
-        <v>4027.9802</v>
+        <v>6030.882200000002</v>
       </c>
       <c r="AF10" t="n">
-        <v>2543.8585</v>
+        <v>3400.1794</v>
       </c>
       <c r="AG10" t="n">
-        <v>206700044.6</v>
+        <v>889900785</v>
       </c>
     </row>
     <row r="11">
@@ -1448,94 +1448,94 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>55250949000</v>
+        <v>93491584000</v>
       </c>
       <c r="E11" t="n">
-        <v>3.772087414877951e+45</v>
+        <v>1.116321812368625e+53</v>
       </c>
       <c r="F11" t="n">
-        <v>105009.178</v>
+        <v>136046.24</v>
       </c>
       <c r="G11" t="n">
-        <v>13964.2382</v>
+        <v>30880.024</v>
       </c>
       <c r="H11" t="n">
-        <v>512.02576</v>
+        <v>480.8504799999999</v>
       </c>
       <c r="I11" t="n">
-        <v>85.40737899999999</v>
+        <v>83.857828</v>
       </c>
       <c r="J11" t="n">
-        <v>2793.9055</v>
+        <v>2944.1834</v>
       </c>
       <c r="K11" t="n">
-        <v>474.7113600000001</v>
+        <v>391.5138899999999</v>
       </c>
       <c r="L11" t="n">
-        <v>16962.846</v>
+        <v>12057.2093</v>
       </c>
       <c r="M11" t="n">
-        <v>4628.4089</v>
+        <v>4318.349099999999</v>
       </c>
       <c r="N11" t="n">
-        <v>4587.118950000001</v>
+        <v>12108.5482</v>
       </c>
       <c r="O11" t="n">
-        <v>7105295200</v>
+        <v>16818445200</v>
       </c>
       <c r="P11" t="n">
-        <v>2057629509.68</v>
+        <v>9854672300</v>
       </c>
       <c r="Q11" t="n">
-        <v>80961.50689999999</v>
+        <v>492361.325</v>
       </c>
       <c r="R11" t="n">
-        <v>20196990.773</v>
+        <v>1039583861.783</v>
       </c>
       <c r="S11" t="n">
-        <v>2228.7623</v>
+        <v>2441.3501</v>
       </c>
       <c r="T11" t="n">
-        <v>902.7841099999999</v>
+        <v>1498.01188</v>
       </c>
       <c r="U11" t="n">
-        <v>448089.02</v>
+        <v>15860677.41</v>
       </c>
       <c r="V11" t="n">
-        <v>65572459.677</v>
+        <v>1492348550</v>
       </c>
       <c r="W11" t="n">
-        <v>960.44146</v>
+        <v>920.6675000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>686.5892500000001</v>
+        <v>600.42387</v>
       </c>
       <c r="Y11" t="n">
-        <v>5129.5236</v>
+        <v>5139.9771</v>
       </c>
       <c r="Z11" t="n">
-        <v>1507.8333</v>
+        <v>1487.569</v>
       </c>
       <c r="AA11" t="n">
-        <v>1286.6178</v>
+        <v>1420.2632</v>
       </c>
       <c r="AB11" t="n">
-        <v>3569.4451</v>
+        <v>7817.018300000002</v>
       </c>
       <c r="AC11" t="n">
-        <v>8594.870299999999</v>
+        <v>8675.955600000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1784.3681</v>
+        <v>2167.4522</v>
       </c>
       <c r="AE11" t="n">
-        <v>4027.9802</v>
+        <v>6022.748700000001</v>
       </c>
       <c r="AF11" t="n">
-        <v>2466.2346</v>
+        <v>3155.0861</v>
       </c>
       <c r="AG11" t="n">
-        <v>202961330.3</v>
+        <v>639152955</v>
       </c>
     </row>
     <row r="12">
@@ -1549,94 +1549,94 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>52237560000</v>
+        <v>92801996000</v>
       </c>
       <c r="E12" t="n">
-        <v>2.01392417245507e+43</v>
+        <v>8.973274876250001e+49</v>
       </c>
       <c r="F12" t="n">
-        <v>96190.738</v>
+        <v>134620.04</v>
       </c>
       <c r="G12" t="n">
-        <v>12859.9194</v>
+        <v>28575.22</v>
       </c>
       <c r="H12" t="n">
-        <v>507.84155</v>
+        <v>466.74567</v>
       </c>
       <c r="I12" t="n">
-        <v>82.97917200000001</v>
+        <v>83.78553100000001</v>
       </c>
       <c r="J12" t="n">
-        <v>2737.2464</v>
+        <v>2866.4532</v>
       </c>
       <c r="K12" t="n">
-        <v>431.84918</v>
+        <v>375.6733</v>
       </c>
       <c r="L12" t="n">
-        <v>16590.336</v>
+        <v>11330.219</v>
       </c>
       <c r="M12" t="n">
-        <v>4559.5059</v>
+        <v>4311.784799999999</v>
       </c>
       <c r="N12" t="n">
-        <v>3235.81505</v>
+        <v>11880.795</v>
       </c>
       <c r="O12" t="n">
-        <v>7105295200</v>
+        <v>15674444200</v>
       </c>
       <c r="P12" t="n">
-        <v>2057629509.68</v>
+        <v>9854672300</v>
       </c>
       <c r="Q12" t="n">
-        <v>48193.3819</v>
+        <v>332639.905</v>
       </c>
       <c r="R12" t="n">
-        <v>20187660.962</v>
+        <v>943704306.614</v>
       </c>
       <c r="S12" t="n">
-        <v>2228.7623</v>
+        <v>2400.5076</v>
       </c>
       <c r="T12" t="n">
-        <v>853.6744699999999</v>
+        <v>1338.83767</v>
       </c>
       <c r="U12" t="n">
-        <v>443947.03</v>
+        <v>11013072.41</v>
       </c>
       <c r="V12" t="n">
-        <v>65553721.477</v>
+        <v>1486683050</v>
       </c>
       <c r="W12" t="n">
-        <v>946.36977</v>
+        <v>887.1108099999999</v>
       </c>
       <c r="X12" t="n">
-        <v>633.6778499999999</v>
+        <v>587.80662</v>
       </c>
       <c r="Y12" t="n">
-        <v>5033.2253</v>
+        <v>5118.5692</v>
       </c>
       <c r="Z12" t="n">
-        <v>1454.829</v>
+        <v>1484.0849</v>
       </c>
       <c r="AA12" t="n">
-        <v>1272.3558</v>
+        <v>1389.9978</v>
       </c>
       <c r="AB12" t="n">
-        <v>3326.4778</v>
+        <v>7750.699900000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8301.481100000001</v>
+        <v>8675.955600000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>1571.9066</v>
+        <v>2043.5565</v>
       </c>
       <c r="AE12" t="n">
-        <v>3717.22</v>
+        <v>5818.743799999999</v>
       </c>
       <c r="AF12" t="n">
-        <v>2293.0125</v>
+        <v>2932.1258</v>
       </c>
       <c r="AG12" t="n">
-        <v>202961330.3</v>
+        <v>639152955</v>
       </c>
     </row>
     <row r="13">
@@ -1650,94 +1650,94 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>49190795000</v>
+        <v>92801996000</v>
       </c>
       <c r="E13" t="n">
-        <v>1.84697073385507e+43</v>
+        <v>8.956473106250002e+49</v>
       </c>
       <c r="F13" t="n">
-        <v>94921.338</v>
+        <v>134215.09</v>
       </c>
       <c r="G13" t="n">
-        <v>11388.7284</v>
+        <v>26517.356</v>
       </c>
       <c r="H13" t="n">
-        <v>496.82246</v>
+        <v>466.73731</v>
       </c>
       <c r="I13" t="n">
-        <v>82.734397</v>
+        <v>83.08431499999999</v>
       </c>
       <c r="J13" t="n">
-        <v>2688.4242</v>
+        <v>2724.4502</v>
       </c>
       <c r="K13" t="n">
-        <v>399.66864</v>
+        <v>353.88012</v>
       </c>
       <c r="L13" t="n">
-        <v>16134.195</v>
+        <v>11152.556</v>
       </c>
       <c r="M13" t="n">
-        <v>4420.3358</v>
+        <v>4164.0029</v>
       </c>
       <c r="N13" t="n">
-        <v>3235.81505</v>
+        <v>11175.6863</v>
       </c>
       <c r="O13" t="n">
-        <v>6024949900</v>
+        <v>14112427900</v>
       </c>
       <c r="P13" t="n">
-        <v>2057629509.68</v>
+        <v>9854672300</v>
       </c>
       <c r="Q13" t="n">
-        <v>36127.1739</v>
+        <v>330623.905</v>
       </c>
       <c r="R13" t="n">
-        <v>20187660.962</v>
+        <v>808548576.9170001</v>
       </c>
       <c r="S13" t="n">
-        <v>2133.7336</v>
+        <v>2390.8342</v>
       </c>
       <c r="T13" t="n">
-        <v>783.4012500000001</v>
+        <v>1304.87547</v>
       </c>
       <c r="U13" t="n">
-        <v>443947.03</v>
+        <v>11013072.41</v>
       </c>
       <c r="V13" t="n">
-        <v>65553721.477</v>
+        <v>1486683050</v>
       </c>
       <c r="W13" t="n">
-        <v>926.0206699999999</v>
+        <v>885.9809300000001</v>
       </c>
       <c r="X13" t="n">
-        <v>633.2882299999999</v>
+        <v>574.0964799999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>4899.3048</v>
+        <v>4971.5927</v>
       </c>
       <c r="Z13" t="n">
-        <v>1429.2831</v>
+        <v>1411.408</v>
       </c>
       <c r="AA13" t="n">
-        <v>1235.6455</v>
+        <v>1328.814</v>
       </c>
       <c r="AB13" t="n">
-        <v>3326.4778</v>
+        <v>7485.8317</v>
       </c>
       <c r="AC13" t="n">
-        <v>8301.481100000001</v>
+        <v>8675.955600000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>1571.9066</v>
+        <v>1979.1858</v>
       </c>
       <c r="AE13" t="n">
-        <v>3703.2708</v>
+        <v>5633.158099999999</v>
       </c>
       <c r="AF13" t="n">
-        <v>2113.0927</v>
+        <v>2932.1258</v>
       </c>
       <c r="AG13" t="n">
-        <v>150863689.1</v>
+        <v>639152955</v>
       </c>
     </row>
     <row r="14">
@@ -1751,94 +1751,94 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>49190795000</v>
+        <v>91587016000</v>
       </c>
       <c r="E14" t="n">
-        <v>1.486296138195719e+43</v>
+        <v>4.829934197132699e+49</v>
       </c>
       <c r="F14" t="n">
-        <v>91329.84799999998</v>
+        <v>130297.13</v>
       </c>
       <c r="G14" t="n">
-        <v>11388.7284</v>
+        <v>26517.356</v>
       </c>
       <c r="H14" t="n">
-        <v>470.8076599999999</v>
+        <v>457.5875</v>
       </c>
       <c r="I14" t="n">
-        <v>78.64875500000001</v>
+        <v>80.114745</v>
       </c>
       <c r="J14" t="n">
-        <v>2627.8695</v>
+        <v>2696.3227</v>
       </c>
       <c r="K14" t="n">
-        <v>393.24201</v>
+        <v>339.95356</v>
       </c>
       <c r="L14" t="n">
-        <v>15348.794</v>
+        <v>11122.796</v>
       </c>
       <c r="M14" t="n">
-        <v>4342.7291</v>
+        <v>4162.7593</v>
       </c>
       <c r="N14" t="n">
-        <v>3235.81505</v>
+        <v>11175.6863</v>
       </c>
       <c r="O14" t="n">
-        <v>6022280900</v>
+        <v>12003575700</v>
       </c>
       <c r="P14" t="n">
-        <v>1993108709.68</v>
+        <v>8188216600</v>
       </c>
       <c r="Q14" t="n">
-        <v>35831.2638</v>
+        <v>319563.262</v>
       </c>
       <c r="R14" t="n">
-        <v>20187660.962</v>
+        <v>722106286.9170001</v>
       </c>
       <c r="S14" t="n">
-        <v>1997.7303</v>
+        <v>2266.7751</v>
       </c>
       <c r="T14" t="n">
-        <v>777.6700299999999</v>
+        <v>1254.17607</v>
       </c>
       <c r="U14" t="n">
-        <v>443947.03</v>
+        <v>10635157.22</v>
       </c>
       <c r="V14" t="n">
-        <v>10323916.377</v>
+        <v>1439710050</v>
       </c>
       <c r="W14" t="n">
-        <v>907.8233699999998</v>
+        <v>844.3261199999999</v>
       </c>
       <c r="X14" t="n">
-        <v>627.00889</v>
+        <v>564.28388</v>
       </c>
       <c r="Y14" t="n">
-        <v>4899.3048</v>
+        <v>4927.2905</v>
       </c>
       <c r="Z14" t="n">
-        <v>1305.7634</v>
+        <v>1405.884</v>
       </c>
       <c r="AA14" t="n">
-        <v>1223.5608</v>
+        <v>1294.1936</v>
       </c>
       <c r="AB14" t="n">
-        <v>3326.4778</v>
+        <v>7422.873900000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>8301.481100000001</v>
+        <v>8675.955600000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>1571.9066</v>
+        <v>1979.1858</v>
       </c>
       <c r="AE14" t="n">
-        <v>3703.2708</v>
+        <v>5633.158099999999</v>
       </c>
       <c r="AF14" t="n">
-        <v>1963.2907</v>
+        <v>2881.1552</v>
       </c>
       <c r="AG14" t="n">
-        <v>97590448.90000001</v>
+        <v>639152955</v>
       </c>
     </row>
     <row r="15">
@@ -1852,94 +1852,94 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>49190795000</v>
+        <v>89406413000</v>
       </c>
       <c r="E15" t="n">
-        <v>1.486296138195719e+43</v>
+        <v>5.4020242905e+46</v>
       </c>
       <c r="F15" t="n">
-        <v>90336.488</v>
+        <v>130085.08</v>
       </c>
       <c r="G15" t="n">
-        <v>11388.7284</v>
+        <v>25159.85</v>
       </c>
       <c r="H15" t="n">
-        <v>456.5535499999999</v>
+        <v>455.7736</v>
       </c>
       <c r="I15" t="n">
-        <v>76.981426</v>
+        <v>78.57616899999999</v>
       </c>
       <c r="J15" t="n">
-        <v>2539.3574</v>
+        <v>2576.9935</v>
       </c>
       <c r="K15" t="n">
-        <v>382.9915199999999</v>
+        <v>333.60628</v>
       </c>
       <c r="L15" t="n">
-        <v>14792.542</v>
+        <v>10768.3235</v>
       </c>
       <c r="M15" t="n">
-        <v>4318.8027</v>
+        <v>4162.7593</v>
       </c>
       <c r="N15" t="n">
-        <v>3235.81505</v>
+        <v>10659.8866</v>
       </c>
       <c r="O15" t="n">
-        <v>6022280900</v>
+        <v>11992181700</v>
       </c>
       <c r="P15" t="n">
-        <v>1993108709.68</v>
+        <v>7654749400</v>
       </c>
       <c r="Q15" t="n">
-        <v>35831.2638</v>
+        <v>255245.623</v>
       </c>
       <c r="R15" t="n">
-        <v>9441851.836999999</v>
+        <v>669804446.9170001</v>
       </c>
       <c r="S15" t="n">
-        <v>1962.2728</v>
+        <v>2266.7751</v>
       </c>
       <c r="T15" t="n">
-        <v>777.6700299999999</v>
+        <v>1222.01025</v>
       </c>
       <c r="U15" t="n">
-        <v>443947.03</v>
+        <v>6308032.07</v>
       </c>
       <c r="V15" t="n">
-        <v>10320185.077</v>
+        <v>1252958150</v>
       </c>
       <c r="W15" t="n">
-        <v>879.1583499999999</v>
+        <v>844.2805999999998</v>
       </c>
       <c r="X15" t="n">
-        <v>626.9976199999999</v>
+        <v>563.3841</v>
       </c>
       <c r="Y15" t="n">
-        <v>4899.3048</v>
+        <v>4925.8202</v>
       </c>
       <c r="Z15" t="n">
-        <v>1245.0567</v>
+        <v>1351.1335</v>
       </c>
       <c r="AA15" t="n">
-        <v>1211.2215</v>
+        <v>1250.9685</v>
       </c>
       <c r="AB15" t="n">
-        <v>3326.4778</v>
+        <v>7422.873900000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>8270.041599999999</v>
+        <v>8594.2819</v>
       </c>
       <c r="AD15" t="n">
-        <v>1525.4346</v>
+        <v>1882.2573</v>
       </c>
       <c r="AE15" t="n">
-        <v>3703.2708</v>
+        <v>5328.291200000001</v>
       </c>
       <c r="AF15" t="n">
-        <v>1881.2199</v>
+        <v>2659.0508</v>
       </c>
       <c r="AG15" t="n">
-        <v>64524240.9</v>
+        <v>603936595</v>
       </c>
     </row>
     <row r="16">
@@ -1953,94 +1953,94 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>49190795000</v>
+        <v>86444650000</v>
       </c>
       <c r="E16" t="n">
-        <v>1.486296138195719e+43</v>
+        <v>1.23756782598e+46</v>
       </c>
       <c r="F16" t="n">
-        <v>84659.43799999999</v>
+        <v>128404.18</v>
       </c>
       <c r="G16" t="n">
-        <v>10376.1283</v>
+        <v>22711.906</v>
       </c>
       <c r="H16" t="n">
-        <v>425.77627</v>
+        <v>445.54564</v>
       </c>
       <c r="I16" t="n">
-        <v>75.272684</v>
+        <v>78.37628599999999</v>
       </c>
       <c r="J16" t="n">
-        <v>2528.0269</v>
+        <v>2521.6714</v>
       </c>
       <c r="K16" t="n">
-        <v>342.01174</v>
+        <v>322.60895</v>
       </c>
       <c r="L16" t="n">
-        <v>14190.594</v>
+        <v>10728.0165</v>
       </c>
       <c r="M16" t="n">
-        <v>4256.813400000001</v>
+        <v>4106.0871</v>
       </c>
       <c r="N16" t="n">
-        <v>3235.81505</v>
+        <v>9515.618400000001</v>
       </c>
       <c r="O16" t="n">
-        <v>6022280900</v>
+        <v>11286694800</v>
       </c>
       <c r="P16" t="n">
-        <v>1993108709.68</v>
+        <v>5992438900</v>
       </c>
       <c r="Q16" t="n">
-        <v>35831.2638</v>
+        <v>226161.293</v>
       </c>
       <c r="R16" t="n">
-        <v>9441851.836999999</v>
+        <v>498613406.917</v>
       </c>
       <c r="S16" t="n">
-        <v>1912.4941</v>
+        <v>2207.9363</v>
       </c>
       <c r="T16" t="n">
-        <v>777.6700299999999</v>
+        <v>1115.3715</v>
       </c>
       <c r="U16" t="n">
-        <v>443947.03</v>
+        <v>5122547.07</v>
       </c>
       <c r="V16" t="n">
-        <v>10320185.077</v>
+        <v>1195552610</v>
       </c>
       <c r="W16" t="n">
-        <v>827.7787900000001</v>
+        <v>844.2805999999998</v>
       </c>
       <c r="X16" t="n">
-        <v>596.2152599999999</v>
+        <v>551.7276300000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>4807.7191</v>
+        <v>4869.4505</v>
       </c>
       <c r="Z16" t="n">
-        <v>1213.5718</v>
+        <v>1324.5649</v>
       </c>
       <c r="AA16" t="n">
-        <v>1139.60784</v>
+        <v>1201.1292</v>
       </c>
       <c r="AB16" t="n">
-        <v>3326.4778</v>
+        <v>6959.1561</v>
       </c>
       <c r="AC16" t="n">
-        <v>8018.4738</v>
+        <v>8579.341</v>
       </c>
       <c r="AD16" t="n">
-        <v>1491.9692</v>
+        <v>1760.9345</v>
       </c>
       <c r="AE16" t="n">
-        <v>3703.2708</v>
+        <v>5328.291200000001</v>
       </c>
       <c r="AF16" t="n">
-        <v>1824.3578</v>
+        <v>2659.0508</v>
       </c>
       <c r="AG16" t="n">
-        <v>64524240.9</v>
+        <v>535764235</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo/software/results_branch/results_cec2017_30.xlsx
+++ b/Trabajo/software/results_branch/results_cec2017_30.xlsx
@@ -542,91 +542,91 @@
         <v>7228542600</v>
       </c>
       <c r="E2" t="n">
-        <v>1253801741500</v>
+        <v>127836377946</v>
       </c>
       <c r="F2" t="n">
-        <v>14931.8288</v>
+        <v>10260.2478</v>
       </c>
       <c r="G2" t="n">
-        <v>705.83293</v>
+        <v>344.180383</v>
       </c>
       <c r="H2" t="n">
-        <v>69.282163</v>
+        <v>117.858539</v>
       </c>
       <c r="I2" t="n">
-        <v>60.466613</v>
+        <v>66.853517</v>
       </c>
       <c r="J2" t="n">
-        <v>410.78107</v>
+        <v>510.8297899999999</v>
       </c>
       <c r="K2" t="n">
-        <v>64.38911399999999</v>
+        <v>121.271979</v>
       </c>
       <c r="L2" t="n">
-        <v>1267.12174</v>
+        <v>1598.4183</v>
       </c>
       <c r="M2" t="n">
-        <v>1072.95406</v>
+        <v>927.3903400000002</v>
       </c>
       <c r="N2" t="n">
-        <v>797.9958260000001</v>
+        <v>491.4590749999999</v>
       </c>
       <c r="O2" t="n">
-        <v>82238359.677</v>
+        <v>82172205.13699999</v>
       </c>
       <c r="P2" t="n">
-        <v>5488.593040000001</v>
+        <v>8596.4746</v>
       </c>
       <c r="Q2" t="n">
-        <v>188.227995</v>
+        <v>152.204531</v>
       </c>
       <c r="R2" t="n">
-        <v>3978.73395</v>
+        <v>4323.02753</v>
       </c>
       <c r="S2" t="n">
-        <v>439.0569100000001</v>
+        <v>474.1287399999999</v>
       </c>
       <c r="T2" t="n">
-        <v>139.186411</v>
+        <v>130.203457</v>
       </c>
       <c r="U2" t="n">
-        <v>4558.300000000001</v>
+        <v>3713.7039</v>
       </c>
       <c r="V2" t="n">
-        <v>3722.500949999999</v>
+        <v>4044.47962</v>
       </c>
       <c r="W2" t="n">
-        <v>208.346877</v>
+        <v>244.75483</v>
       </c>
       <c r="X2" t="n">
-        <v>264.1222</v>
+        <v>251.45151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1182.30648</v>
+        <v>1175.86616</v>
       </c>
       <c r="Z2" t="n">
-        <v>451.24866</v>
+        <v>491.98218</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.6627999999999</v>
+        <v>388.93089</v>
       </c>
       <c r="AB2" t="n">
-        <v>805.53621</v>
+        <v>867.2931700000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1397.21843</v>
+        <v>1338.37435</v>
       </c>
       <c r="AD2" t="n">
-        <v>520.2679900000001</v>
+        <v>504.6466600000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>802.6557</v>
+        <v>661.2230800000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>472.9426100000001</v>
+        <v>491.3977199999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>5310163.715</v>
+        <v>4232030.437000001</v>
       </c>
     </row>
     <row r="3">
@@ -643,34 +643,34 @@
         <v>187650090000</v>
       </c>
       <c r="E3" t="n">
-        <v>4.529776684434268e+67</v>
+        <v>1.029126080162688e+65</v>
       </c>
       <c r="F3" t="n">
-        <v>156291449863.1</v>
+        <v>156291434902.091</v>
       </c>
       <c r="G3" t="n">
         <v>83658.401</v>
       </c>
       <c r="H3" t="n">
-        <v>701.45586</v>
+        <v>704.91786</v>
       </c>
       <c r="I3" t="n">
-        <v>103.804587</v>
+        <v>103.806733</v>
       </c>
       <c r="J3" t="n">
-        <v>4282.387000000001</v>
+        <v>4183.7294</v>
       </c>
       <c r="K3" t="n">
-        <v>653.88633</v>
+        <v>658.44868</v>
       </c>
       <c r="L3" t="n">
-        <v>24473.707</v>
+        <v>27179.853</v>
       </c>
       <c r="M3" t="n">
-        <v>5550.1256</v>
+        <v>5550.432099999999</v>
       </c>
       <c r="N3" t="n">
-        <v>68749666.14999999</v>
+        <v>68753976.35499999</v>
       </c>
       <c r="O3" t="n">
         <v>36736245000</v>
@@ -679,13 +679,13 @@
         <v>47175310000</v>
       </c>
       <c r="Q3" t="n">
-        <v>660764113</v>
+        <v>660040484.7</v>
       </c>
       <c r="R3" t="n">
         <v>13879336300</v>
       </c>
       <c r="S3" t="n">
-        <v>23546.256</v>
+        <v>20609.84840000001</v>
       </c>
       <c r="T3" t="n">
         <v>436596.757</v>
@@ -697,31 +697,31 @@
         <v>11370525000</v>
       </c>
       <c r="W3" t="n">
-        <v>1436.1201</v>
+        <v>1414.6207</v>
       </c>
       <c r="X3" t="n">
-        <v>941.2868099999999</v>
+        <v>995.4112499999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>6099.4923</v>
+        <v>5966.556200000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>2535.0773</v>
+        <v>2452.9233</v>
       </c>
       <c r="AA3" t="n">
-        <v>2728.5146</v>
+        <v>3016.7801</v>
       </c>
       <c r="AB3" t="n">
-        <v>23596.158</v>
+        <v>23278.301</v>
       </c>
       <c r="AC3" t="n">
-        <v>21584.179</v>
+        <v>22966.3404</v>
       </c>
       <c r="AD3" t="n">
-        <v>6184.0038</v>
+        <v>5755.701000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>14417.881</v>
+        <v>14352.908</v>
       </c>
       <c r="AF3" t="n">
         <v>2035041.3792</v>
@@ -744,34 +744,34 @@
         <v>151921980000</v>
       </c>
       <c r="E4" t="n">
-        <v>4.529776684434268e+67</v>
+        <v>1.029126080162688e+65</v>
       </c>
       <c r="F4" t="n">
-        <v>2523963649.48</v>
+        <v>2523940807.764</v>
       </c>
       <c r="G4" t="n">
-        <v>62739.433</v>
+        <v>62338.53000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>700.2362499999999</v>
+        <v>702.9613900000002</v>
       </c>
       <c r="I4" t="n">
-        <v>102.122106</v>
+        <v>101.002981</v>
       </c>
       <c r="J4" t="n">
-        <v>4259.888799999999</v>
+        <v>4015.1321</v>
       </c>
       <c r="K4" t="n">
-        <v>652.6963400000001</v>
+        <v>655.4508</v>
       </c>
       <c r="L4" t="n">
-        <v>21711.527</v>
+        <v>24918.048</v>
       </c>
       <c r="M4" t="n">
-        <v>5457.651999999999</v>
+        <v>5436.241</v>
       </c>
       <c r="N4" t="n">
-        <v>803747.5481</v>
+        <v>805907.5418000001</v>
       </c>
       <c r="O4" t="n">
         <v>32062088000</v>
@@ -780,16 +780,16 @@
         <v>37184730000</v>
       </c>
       <c r="Q4" t="n">
-        <v>199542580.5</v>
+        <v>198795065.9</v>
       </c>
       <c r="R4" t="n">
         <v>10465079600</v>
       </c>
       <c r="S4" t="n">
-        <v>11737.9148</v>
+        <v>8481.2533</v>
       </c>
       <c r="T4" t="n">
-        <v>138798.609</v>
+        <v>138772.3541</v>
       </c>
       <c r="U4" t="n">
         <v>1096853391</v>
@@ -798,31 +798,31 @@
         <v>9609165200</v>
       </c>
       <c r="W4" t="n">
-        <v>1422.1411</v>
+        <v>1403.3991</v>
       </c>
       <c r="X4" t="n">
-        <v>836.14097</v>
+        <v>920.5298300000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>6044.6894</v>
+        <v>5848.8019</v>
       </c>
       <c r="Z4" t="n">
-        <v>2509.2333</v>
+        <v>2381.4229</v>
       </c>
       <c r="AA4" t="n">
-        <v>2462.1648</v>
+        <v>2598.9194</v>
       </c>
       <c r="AB4" t="n">
-        <v>17737.4888</v>
+        <v>17427.2548</v>
       </c>
       <c r="AC4" t="n">
-        <v>14971.2196</v>
+        <v>16562.3461</v>
       </c>
       <c r="AD4" t="n">
-        <v>5754.7813</v>
+        <v>4995.758</v>
       </c>
       <c r="AE4" t="n">
-        <v>12781.7764</v>
+        <v>12716.8034</v>
       </c>
       <c r="AF4" t="n">
         <v>300622.1822</v>
@@ -845,34 +845,34 @@
         <v>138787530000</v>
       </c>
       <c r="E5" t="n">
-        <v>2.722538999824311e+67</v>
+        <v>1.029126080162688e+65</v>
       </c>
       <c r="F5" t="n">
-        <v>230039.98</v>
+        <v>219730.494</v>
       </c>
       <c r="G5" t="n">
-        <v>55022.94</v>
+        <v>54518.871</v>
       </c>
       <c r="H5" t="n">
-        <v>699.7844099999999</v>
+        <v>701.9677899999999</v>
       </c>
       <c r="I5" t="n">
-        <v>101.427464</v>
+        <v>99.95162399999998</v>
       </c>
       <c r="J5" t="n">
-        <v>4248.3986</v>
+        <v>3980.578599999999</v>
       </c>
       <c r="K5" t="n">
-        <v>652.29955</v>
+        <v>654.64575</v>
       </c>
       <c r="L5" t="n">
-        <v>20210.36</v>
+        <v>23387.094</v>
       </c>
       <c r="M5" t="n">
-        <v>5414.423</v>
+        <v>5374.8769</v>
       </c>
       <c r="N5" t="n">
-        <v>803188.6011000001</v>
+        <v>801295.3428</v>
       </c>
       <c r="O5" t="n">
         <v>28525481000</v>
@@ -881,52 +881,52 @@
         <v>23725437000</v>
       </c>
       <c r="Q5" t="n">
-        <v>121440202.3</v>
+        <v>120692687.7</v>
       </c>
       <c r="R5" t="n">
         <v>8376302700</v>
       </c>
       <c r="S5" t="n">
-        <v>11297.0359</v>
+        <v>7467.5242</v>
       </c>
       <c r="T5" t="n">
-        <v>44381.199</v>
+        <v>44351.61659999999</v>
       </c>
       <c r="U5" t="n">
-        <v>268029870</v>
+        <v>251976004</v>
       </c>
       <c r="V5" t="n">
         <v>9609165200</v>
       </c>
       <c r="W5" t="n">
-        <v>1417.8437</v>
+        <v>1396.4569</v>
       </c>
       <c r="X5" t="n">
-        <v>835.43817</v>
+        <v>915.9520799999998</v>
       </c>
       <c r="Y5" t="n">
-        <v>6022.878500000001</v>
+        <v>5790.3869</v>
       </c>
       <c r="Z5" t="n">
-        <v>2496.9808</v>
+        <v>2333.636100000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>2100.6587</v>
+        <v>2414.5229</v>
       </c>
       <c r="AB5" t="n">
-        <v>15353.1629</v>
+        <v>15193.9522</v>
       </c>
       <c r="AC5" t="n">
-        <v>13891.5252</v>
+        <v>14869.7232</v>
       </c>
       <c r="AD5" t="n">
-        <v>5737.9802</v>
+        <v>4874.7272</v>
       </c>
       <c r="AE5" t="n">
-        <v>12117.3695</v>
+        <v>11724.056</v>
       </c>
       <c r="AF5" t="n">
-        <v>245343.3381000001</v>
+        <v>245337.7171000001</v>
       </c>
       <c r="AG5" t="n">
         <v>4147385280</v>
@@ -946,34 +946,34 @@
         <v>129170450000</v>
       </c>
       <c r="E6" t="n">
-        <v>2.357574375412282e+63</v>
+        <v>1.029126080162688e+65</v>
       </c>
       <c r="F6" t="n">
-        <v>215176.94</v>
+        <v>218934.664</v>
       </c>
       <c r="G6" t="n">
-        <v>45941.06</v>
+        <v>47720.875</v>
       </c>
       <c r="H6" t="n">
-        <v>699.47158</v>
+        <v>701.325</v>
       </c>
       <c r="I6" t="n">
-        <v>100.763893</v>
+        <v>99.31686999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4238.6056</v>
+        <v>3949.1043</v>
       </c>
       <c r="K6" t="n">
-        <v>652.0021200000001</v>
+        <v>654.2450000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>19054.172</v>
+        <v>20935.65</v>
       </c>
       <c r="M6" t="n">
-        <v>5387.936300000001</v>
+        <v>5327.7327</v>
       </c>
       <c r="N6" t="n">
-        <v>25239.4461</v>
+        <v>24246.5488</v>
       </c>
       <c r="O6" t="n">
         <v>26082511000</v>
@@ -982,52 +982,52 @@
         <v>22074123000</v>
       </c>
       <c r="Q6" t="n">
-        <v>73212206.84</v>
+        <v>71348212.072</v>
       </c>
       <c r="R6" t="n">
         <v>6315840800</v>
       </c>
       <c r="S6" t="n">
-        <v>6664.4193</v>
+        <v>5475.940299999999</v>
       </c>
       <c r="T6" t="n">
-        <v>38095.329</v>
+        <v>38065.2286</v>
       </c>
       <c r="U6" t="n">
-        <v>249882484</v>
+        <v>230039006</v>
       </c>
       <c r="V6" t="n">
         <v>7160179700</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.4565</v>
+        <v>1392.6304</v>
       </c>
       <c r="X6" t="n">
-        <v>774.08752</v>
+        <v>908.8931</v>
       </c>
       <c r="Y6" t="n">
-        <v>6000.8703</v>
+        <v>5767.4704</v>
       </c>
       <c r="Z6" t="n">
-        <v>2486.7422</v>
+        <v>2294.1759</v>
       </c>
       <c r="AA6" t="n">
-        <v>1856.168</v>
+        <v>1788.8224</v>
       </c>
       <c r="AB6" t="n">
-        <v>12524.7213</v>
+        <v>12365.5106</v>
       </c>
       <c r="AC6" t="n">
-        <v>12052.5294</v>
+        <v>12949.489</v>
       </c>
       <c r="AD6" t="n">
-        <v>5669.796199999999</v>
+        <v>4606.854700000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>10610.4791</v>
+        <v>10217.1656</v>
       </c>
       <c r="AF6" t="n">
-        <v>110181.5282</v>
+        <v>110072.6679</v>
       </c>
       <c r="AG6" t="n">
         <v>3571662880</v>
@@ -1047,34 +1047,34 @@
         <v>109528171000</v>
       </c>
       <c r="E7" t="n">
-        <v>1.693127647394075e+58</v>
+        <v>1.587461013550801e+57</v>
       </c>
       <c r="F7" t="n">
-        <v>182060.42</v>
+        <v>150970.371</v>
       </c>
       <c r="G7" t="n">
-        <v>40442.86</v>
+        <v>40934.196</v>
       </c>
       <c r="H7" t="n">
-        <v>611.89762</v>
+        <v>700.1220500000001</v>
       </c>
       <c r="I7" t="n">
-        <v>93.291326</v>
+        <v>97.980842</v>
       </c>
       <c r="J7" t="n">
-        <v>3662.6911</v>
+        <v>3924.413099999999</v>
       </c>
       <c r="K7" t="n">
-        <v>539.5268100000001</v>
+        <v>653.9902199999999</v>
       </c>
       <c r="L7" t="n">
-        <v>16854.922</v>
+        <v>19821.601</v>
       </c>
       <c r="M7" t="n">
-        <v>5011.9115</v>
+        <v>5315.695000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>18137.5461</v>
+        <v>18296.6318</v>
       </c>
       <c r="O7" t="n">
         <v>24992237000</v>
@@ -1083,52 +1083,52 @@
         <v>13005311200</v>
       </c>
       <c r="Q7" t="n">
-        <v>4465399.959000001</v>
+        <v>2843253.73</v>
       </c>
       <c r="R7" t="n">
         <v>3587022300</v>
       </c>
       <c r="S7" t="n">
-        <v>2955.919800000001</v>
+        <v>4186.833900000001</v>
       </c>
       <c r="T7" t="n">
-        <v>20825.7792</v>
+        <v>20795.6788</v>
       </c>
       <c r="U7" t="n">
-        <v>131015958.6</v>
+        <v>123752306.3</v>
       </c>
       <c r="V7" t="n">
         <v>4007180400</v>
       </c>
       <c r="W7" t="n">
-        <v>1287.6403</v>
+        <v>1392.0257</v>
       </c>
       <c r="X7" t="n">
-        <v>709.9446</v>
+        <v>875.6264099999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>5656.5339</v>
+        <v>5759.574500000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>2095.0225</v>
+        <v>2284.018599999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>1809.8415</v>
+        <v>1669.0201</v>
       </c>
       <c r="AB7" t="n">
-        <v>12342.2013</v>
+        <v>11803.687</v>
       </c>
       <c r="AC7" t="n">
-        <v>11878.6748</v>
+        <v>12423.3596</v>
       </c>
       <c r="AD7" t="n">
-        <v>3237.7613</v>
+        <v>4504.353900000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>8587.023299999999</v>
+        <v>8193.709800000001</v>
       </c>
       <c r="AF7" t="n">
-        <v>8084.600100000001</v>
+        <v>7733.6753</v>
       </c>
       <c r="AG7" t="n">
         <v>1936617700</v>
@@ -1148,34 +1148,34 @@
         <v>102593698000</v>
       </c>
       <c r="E8" t="n">
-        <v>8.557025830356171e+57</v>
+        <v>5.594889084885915e+56</v>
       </c>
       <c r="F8" t="n">
-        <v>151123.72</v>
+        <v>117283.461</v>
       </c>
       <c r="G8" t="n">
-        <v>34049.197</v>
+        <v>33510.58</v>
       </c>
       <c r="H8" t="n">
-        <v>527.5669799999999</v>
+        <v>699.2688599999999</v>
       </c>
       <c r="I8" t="n">
-        <v>90.253765</v>
+        <v>97.374669</v>
       </c>
       <c r="J8" t="n">
-        <v>3111.6885</v>
+        <v>3917.1387</v>
       </c>
       <c r="K8" t="n">
-        <v>437.96824</v>
+        <v>644.8386899999999</v>
       </c>
       <c r="L8" t="n">
-        <v>14404.733</v>
+        <v>18282.933</v>
       </c>
       <c r="M8" t="n">
-        <v>4596.0928</v>
+        <v>5269.097600000001</v>
       </c>
       <c r="N8" t="n">
-        <v>15185.0507</v>
+        <v>14423.0255</v>
       </c>
       <c r="O8" t="n">
         <v>20310088000</v>
@@ -1184,52 +1184,52 @@
         <v>11009253800</v>
       </c>
       <c r="Q8" t="n">
-        <v>2441222.078999999</v>
+        <v>1447966.989</v>
       </c>
       <c r="R8" t="n">
         <v>2335013289.783</v>
       </c>
       <c r="S8" t="n">
-        <v>2648.5106</v>
+        <v>2907.5132</v>
       </c>
       <c r="T8" t="n">
-        <v>2269.02079</v>
+        <v>2087.72755</v>
       </c>
       <c r="U8" t="n">
-        <v>35897649.8</v>
+        <v>26532963.366</v>
       </c>
       <c r="V8" t="n">
         <v>2525138420</v>
       </c>
       <c r="W8" t="n">
-        <v>1041.86541</v>
+        <v>1391.6216</v>
       </c>
       <c r="X8" t="n">
-        <v>658.4378800000001</v>
+        <v>827.3225399999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>5474.2262</v>
+        <v>5735.085500000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>1925.7686</v>
+        <v>2277.3648</v>
       </c>
       <c r="AA8" t="n">
-        <v>1669.7041</v>
+        <v>1347.5549</v>
       </c>
       <c r="AB8" t="n">
-        <v>10524.3484</v>
+        <v>9985.8341</v>
       </c>
       <c r="AC8" t="n">
-        <v>10320.6033</v>
+        <v>10964.2416</v>
       </c>
       <c r="AD8" t="n">
-        <v>2785.2842</v>
+        <v>4240.3927</v>
       </c>
       <c r="AE8" t="n">
-        <v>7948.7672</v>
+        <v>7843.2417</v>
       </c>
       <c r="AF8" t="n">
-        <v>6871.416099999999</v>
+        <v>6164.410600000001</v>
       </c>
       <c r="AG8" t="n">
         <v>1484223750</v>
@@ -1249,34 +1249,34 @@
         <v>99316127000</v>
       </c>
       <c r="E9" t="n">
-        <v>1.875150002529317e+57</v>
+        <v>2.673334567117581e+50</v>
       </c>
       <c r="F9" t="n">
-        <v>150413.56</v>
+        <v>117283.461</v>
       </c>
       <c r="G9" t="n">
-        <v>32851.957</v>
+        <v>32313.34</v>
       </c>
       <c r="H9" t="n">
-        <v>518.4638699999999</v>
+        <v>652.4294600000001</v>
       </c>
       <c r="I9" t="n">
-        <v>90.117683</v>
+        <v>93.21776600000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3039.79</v>
+        <v>3189.6556</v>
       </c>
       <c r="K9" t="n">
-        <v>404.87515</v>
+        <v>560.64081</v>
       </c>
       <c r="L9" t="n">
-        <v>12895.5603</v>
+        <v>15873.596</v>
       </c>
       <c r="M9" t="n">
-        <v>4395.7017</v>
+        <v>4848.7308</v>
       </c>
       <c r="N9" t="n">
-        <v>14667.4907</v>
+        <v>11906.1246</v>
       </c>
       <c r="O9" t="n">
         <v>19543646000</v>
@@ -1285,52 +1285,52 @@
         <v>11009253800</v>
       </c>
       <c r="Q9" t="n">
-        <v>1199615.648</v>
+        <v>798913.0460000001</v>
       </c>
       <c r="R9" t="n">
         <v>1965698689.783</v>
       </c>
       <c r="S9" t="n">
-        <v>2571.5819</v>
+        <v>2831.9185</v>
       </c>
       <c r="T9" t="n">
-        <v>1789.04849</v>
+        <v>1594.99071</v>
       </c>
       <c r="U9" t="n">
-        <v>29848368</v>
+        <v>19375329.666</v>
       </c>
       <c r="V9" t="n">
         <v>2300331920</v>
       </c>
       <c r="W9" t="n">
-        <v>1010.31158</v>
+        <v>1205.65617</v>
       </c>
       <c r="X9" t="n">
-        <v>651.0174999999999</v>
+        <v>766.4277999999998</v>
       </c>
       <c r="Y9" t="n">
-        <v>5181.3857</v>
+        <v>5144.5795</v>
       </c>
       <c r="Z9" t="n">
-        <v>1617.7128</v>
+        <v>1981.4845</v>
       </c>
       <c r="AA9" t="n">
-        <v>1492.4788</v>
+        <v>1270.7524</v>
       </c>
       <c r="AB9" t="n">
-        <v>9941.5391</v>
+        <v>9423.7798</v>
       </c>
       <c r="AC9" t="n">
-        <v>9351.146100000002</v>
+        <v>9963.551600000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>2432.4088</v>
+        <v>2217.565500000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>6719.3276</v>
+        <v>6565.0263</v>
       </c>
       <c r="AF9" t="n">
-        <v>3642.9674</v>
+        <v>3321.4246</v>
       </c>
       <c r="AG9" t="n">
         <v>1279801925</v>
@@ -1350,34 +1350,34 @@
         <v>96242354000</v>
       </c>
       <c r="E10" t="n">
-        <v>1.630430244463685e+53</v>
+        <v>2.667388745255655e+50</v>
       </c>
       <c r="F10" t="n">
-        <v>148650.63</v>
+        <v>116523.121</v>
       </c>
       <c r="G10" t="n">
-        <v>31445.52599999999</v>
+        <v>30742.052</v>
       </c>
       <c r="H10" t="n">
-        <v>505.0127899999999</v>
+        <v>595.8574</v>
       </c>
       <c r="I10" t="n">
-        <v>87.410489</v>
+        <v>86.98096200000001</v>
       </c>
       <c r="J10" t="n">
-        <v>2945.8562</v>
+        <v>3045.1922</v>
       </c>
       <c r="K10" t="n">
-        <v>391.5223</v>
+        <v>526.9281699999999</v>
       </c>
       <c r="L10" t="n">
-        <v>12245.3763</v>
+        <v>14942.8669</v>
       </c>
       <c r="M10" t="n">
-        <v>4318.349099999999</v>
+        <v>4705.1822</v>
       </c>
       <c r="N10" t="n">
-        <v>12956.2352</v>
+        <v>11371.9346</v>
       </c>
       <c r="O10" t="n">
         <v>17570792200</v>
@@ -1386,52 +1386,52 @@
         <v>10311171800</v>
       </c>
       <c r="Q10" t="n">
-        <v>492361.325</v>
+        <v>460651.5140000001</v>
       </c>
       <c r="R10" t="n">
         <v>1205035179.783</v>
       </c>
       <c r="S10" t="n">
-        <v>2479.5364</v>
+        <v>2452.9455</v>
       </c>
       <c r="T10" t="n">
-        <v>1661.88779</v>
+        <v>1385.28081</v>
       </c>
       <c r="U10" t="n">
-        <v>19316940.11</v>
+        <v>9685027.646</v>
       </c>
       <c r="V10" t="n">
         <v>1916383850</v>
       </c>
       <c r="W10" t="n">
-        <v>930.4766800000001</v>
+        <v>1086.68102</v>
       </c>
       <c r="X10" t="n">
-        <v>627.2243499999998</v>
+        <v>725.4300300000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>5172.6066</v>
+        <v>5080.934899999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>1514.9626</v>
+        <v>1876.5369</v>
       </c>
       <c r="AA10" t="n">
-        <v>1440.8843</v>
+        <v>1245.1834</v>
       </c>
       <c r="AB10" t="n">
-        <v>8657.295200000002</v>
+        <v>8047.8199</v>
       </c>
       <c r="AC10" t="n">
-        <v>8830.763700000001</v>
+        <v>9685.7443</v>
       </c>
       <c r="AD10" t="n">
-        <v>2269.8062</v>
+        <v>2131.2301</v>
       </c>
       <c r="AE10" t="n">
-        <v>6030.882200000002</v>
+        <v>5703.151800000001</v>
       </c>
       <c r="AF10" t="n">
-        <v>3400.1794</v>
+        <v>3095.856</v>
       </c>
       <c r="AG10" t="n">
         <v>889900785</v>
@@ -1451,34 +1451,34 @@
         <v>93491584000</v>
       </c>
       <c r="E11" t="n">
-        <v>1.116321812368625e+53</v>
+        <v>2.647819236801796e+50</v>
       </c>
       <c r="F11" t="n">
-        <v>136046.24</v>
+        <v>116138.591</v>
       </c>
       <c r="G11" t="n">
-        <v>30880.024</v>
+        <v>30176.55</v>
       </c>
       <c r="H11" t="n">
-        <v>480.8504799999999</v>
+        <v>559.70561</v>
       </c>
       <c r="I11" t="n">
-        <v>83.857828</v>
+        <v>85.084277</v>
       </c>
       <c r="J11" t="n">
-        <v>2944.1834</v>
+        <v>3024.6503</v>
       </c>
       <c r="K11" t="n">
-        <v>391.5138899999999</v>
+        <v>482.14766</v>
       </c>
       <c r="L11" t="n">
-        <v>12057.2093</v>
+        <v>13681.5549</v>
       </c>
       <c r="M11" t="n">
-        <v>4318.349099999999</v>
+        <v>4438.6975</v>
       </c>
       <c r="N11" t="n">
-        <v>12108.5482</v>
+        <v>11371.9346</v>
       </c>
       <c r="O11" t="n">
         <v>16818445200</v>
@@ -1487,52 +1487,52 @@
         <v>9854672300</v>
       </c>
       <c r="Q11" t="n">
-        <v>492361.325</v>
+        <v>460408.944</v>
       </c>
       <c r="R11" t="n">
         <v>1039583861.783</v>
       </c>
       <c r="S11" t="n">
-        <v>2441.3501</v>
+        <v>2452.9455</v>
       </c>
       <c r="T11" t="n">
-        <v>1498.01188</v>
+        <v>1151.54211</v>
       </c>
       <c r="U11" t="n">
-        <v>15860677.41</v>
+        <v>9285184.095999999</v>
       </c>
       <c r="V11" t="n">
         <v>1492348550</v>
       </c>
       <c r="W11" t="n">
-        <v>920.6675000000001</v>
+        <v>1082.52156</v>
       </c>
       <c r="X11" t="n">
-        <v>600.42387</v>
+        <v>714.77684</v>
       </c>
       <c r="Y11" t="n">
-        <v>5139.9771</v>
+        <v>5053.570299999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>1487.569</v>
+        <v>1849.1035</v>
       </c>
       <c r="AA11" t="n">
-        <v>1420.2632</v>
+        <v>1227.4472</v>
       </c>
       <c r="AB11" t="n">
-        <v>7817.018300000002</v>
+        <v>7457.318600000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>8675.955600000001</v>
+        <v>9637.1047</v>
       </c>
       <c r="AD11" t="n">
-        <v>2167.4522</v>
+        <v>2051.3728</v>
       </c>
       <c r="AE11" t="n">
-        <v>6022.748700000001</v>
+        <v>5695.018300000001</v>
       </c>
       <c r="AF11" t="n">
-        <v>3155.0861</v>
+        <v>2946.2199</v>
       </c>
       <c r="AG11" t="n">
         <v>639152955</v>
@@ -1552,34 +1552,34 @@
         <v>92801996000</v>
       </c>
       <c r="E12" t="n">
-        <v>8.973274876250001e+49</v>
+        <v>2.644749920595516e+50</v>
       </c>
       <c r="F12" t="n">
-        <v>134620.04</v>
+        <v>115859.141</v>
       </c>
       <c r="G12" t="n">
-        <v>28575.22</v>
+        <v>27871.746</v>
       </c>
       <c r="H12" t="n">
-        <v>466.74567</v>
+        <v>559.09611</v>
       </c>
       <c r="I12" t="n">
-        <v>83.78553100000001</v>
+        <v>82.04352600000001</v>
       </c>
       <c r="J12" t="n">
-        <v>2866.4532</v>
+        <v>2736.1327</v>
       </c>
       <c r="K12" t="n">
-        <v>375.6733</v>
+        <v>461.1914800000001</v>
       </c>
       <c r="L12" t="n">
-        <v>11330.219</v>
+        <v>12878.0669</v>
       </c>
       <c r="M12" t="n">
-        <v>4311.784799999999</v>
+        <v>4207.994000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>11880.795</v>
+        <v>9485.5072</v>
       </c>
       <c r="O12" t="n">
         <v>15674444200</v>
@@ -1588,52 +1588,52 @@
         <v>9854672300</v>
       </c>
       <c r="Q12" t="n">
-        <v>332639.905</v>
+        <v>216101.402</v>
       </c>
       <c r="R12" t="n">
-        <v>943704306.614</v>
+        <v>943708220.0319999</v>
       </c>
       <c r="S12" t="n">
-        <v>2400.5076</v>
+        <v>2383.3535</v>
       </c>
       <c r="T12" t="n">
-        <v>1338.83767</v>
+        <v>1150.58349</v>
       </c>
       <c r="U12" t="n">
-        <v>11013072.41</v>
+        <v>3795541.196</v>
       </c>
       <c r="V12" t="n">
         <v>1486683050</v>
       </c>
       <c r="W12" t="n">
-        <v>887.1108099999999</v>
+        <v>996.85654</v>
       </c>
       <c r="X12" t="n">
-        <v>587.80662</v>
+        <v>692.1900900000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>5118.5692</v>
+        <v>4958.2705</v>
       </c>
       <c r="Z12" t="n">
-        <v>1484.0849</v>
+        <v>1538.0915</v>
       </c>
       <c r="AA12" t="n">
-        <v>1389.9978</v>
+        <v>1227.4397</v>
       </c>
       <c r="AB12" t="n">
-        <v>7750.699900000001</v>
+        <v>7391.0002</v>
       </c>
       <c r="AC12" t="n">
-        <v>8675.955600000001</v>
+        <v>9626.484699999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>2043.5565</v>
+        <v>1866.0673</v>
       </c>
       <c r="AE12" t="n">
-        <v>5818.743799999999</v>
+        <v>5570.9523</v>
       </c>
       <c r="AF12" t="n">
-        <v>2932.1258</v>
+        <v>2946.2199</v>
       </c>
       <c r="AG12" t="n">
         <v>639152955</v>
@@ -1653,34 +1653,34 @@
         <v>92801996000</v>
       </c>
       <c r="E13" t="n">
-        <v>8.956473106250002e+49</v>
+        <v>2.630153177668516e+50</v>
       </c>
       <c r="F13" t="n">
-        <v>134215.09</v>
+        <v>110321.751</v>
       </c>
       <c r="G13" t="n">
-        <v>26517.356</v>
+        <v>26016.406</v>
       </c>
       <c r="H13" t="n">
-        <v>466.73731</v>
+        <v>556.7999</v>
       </c>
       <c r="I13" t="n">
-        <v>83.08431499999999</v>
+        <v>78.503728</v>
       </c>
       <c r="J13" t="n">
-        <v>2724.4502</v>
+        <v>2735.456300000001</v>
       </c>
       <c r="K13" t="n">
-        <v>353.88012</v>
+        <v>457.46335</v>
       </c>
       <c r="L13" t="n">
-        <v>11152.556</v>
+        <v>12072.6319</v>
       </c>
       <c r="M13" t="n">
-        <v>4164.0029</v>
+        <v>4162.805600000001</v>
       </c>
       <c r="N13" t="n">
-        <v>11175.6863</v>
+        <v>8048.2762</v>
       </c>
       <c r="O13" t="n">
         <v>14112427900</v>
@@ -1689,52 +1689,52 @@
         <v>9854672300</v>
       </c>
       <c r="Q13" t="n">
-        <v>330623.905</v>
+        <v>216047.769</v>
       </c>
       <c r="R13" t="n">
-        <v>808548576.9170001</v>
+        <v>808548476.0880001</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.8342</v>
+        <v>2352.4264</v>
       </c>
       <c r="T13" t="n">
-        <v>1304.87547</v>
+        <v>1150.41443</v>
       </c>
       <c r="U13" t="n">
-        <v>11013072.41</v>
+        <v>3795541.196</v>
       </c>
       <c r="V13" t="n">
         <v>1486683050</v>
       </c>
       <c r="W13" t="n">
-        <v>885.9809300000001</v>
+        <v>995.0191899999998</v>
       </c>
       <c r="X13" t="n">
-        <v>574.0964799999999</v>
+        <v>662.9238799999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>4971.5927</v>
+        <v>4793.8655</v>
       </c>
       <c r="Z13" t="n">
-        <v>1411.408</v>
+        <v>1523.852</v>
       </c>
       <c r="AA13" t="n">
-        <v>1328.814</v>
+        <v>1194.2564</v>
       </c>
       <c r="AB13" t="n">
-        <v>7485.8317</v>
+        <v>7116.588000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>8675.955600000001</v>
+        <v>9291.740999999998</v>
       </c>
       <c r="AD13" t="n">
-        <v>1979.1858</v>
+        <v>1716.2352</v>
       </c>
       <c r="AE13" t="n">
-        <v>5633.158099999999</v>
+        <v>5546.294800000001</v>
       </c>
       <c r="AF13" t="n">
-        <v>2932.1258</v>
+        <v>2686.3411</v>
       </c>
       <c r="AG13" t="n">
         <v>639152955</v>
@@ -1754,34 +1754,34 @@
         <v>91587016000</v>
       </c>
       <c r="E14" t="n">
-        <v>4.829934197132699e+49</v>
+        <v>2.601999777668516e+50</v>
       </c>
       <c r="F14" t="n">
-        <v>130297.13</v>
+        <v>110321.751</v>
       </c>
       <c r="G14" t="n">
-        <v>26517.356</v>
+        <v>26016.406</v>
       </c>
       <c r="H14" t="n">
-        <v>457.5875</v>
+        <v>556.77617</v>
       </c>
       <c r="I14" t="n">
-        <v>80.114745</v>
+        <v>77.067708</v>
       </c>
       <c r="J14" t="n">
-        <v>2696.3227</v>
+        <v>2691.346700000001</v>
       </c>
       <c r="K14" t="n">
-        <v>339.95356</v>
+        <v>437.09172</v>
       </c>
       <c r="L14" t="n">
-        <v>11122.796</v>
+        <v>11689.8409</v>
       </c>
       <c r="M14" t="n">
-        <v>4162.7593</v>
+        <v>4162.124500000001</v>
       </c>
       <c r="N14" t="n">
-        <v>11175.6863</v>
+        <v>7793.119100000001</v>
       </c>
       <c r="O14" t="n">
         <v>12003575700</v>
@@ -1790,52 +1790,52 @@
         <v>8188216600</v>
       </c>
       <c r="Q14" t="n">
-        <v>319563.262</v>
+        <v>216040.041</v>
       </c>
       <c r="R14" t="n">
-        <v>722106286.9170001</v>
+        <v>722106186.0880001</v>
       </c>
       <c r="S14" t="n">
-        <v>2266.7751</v>
+        <v>2226.8882</v>
       </c>
       <c r="T14" t="n">
-        <v>1254.17607</v>
+        <v>1080.81443</v>
       </c>
       <c r="U14" t="n">
-        <v>10635157.22</v>
+        <v>3795541.196</v>
       </c>
       <c r="V14" t="n">
         <v>1439710050</v>
       </c>
       <c r="W14" t="n">
-        <v>844.3261199999999</v>
+        <v>927.7669</v>
       </c>
       <c r="X14" t="n">
-        <v>564.28388</v>
+        <v>651.2948999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>4927.2905</v>
+        <v>4750.0217</v>
       </c>
       <c r="Z14" t="n">
-        <v>1405.884</v>
+        <v>1413.819</v>
       </c>
       <c r="AA14" t="n">
-        <v>1294.1936</v>
+        <v>1191.8981</v>
       </c>
       <c r="AB14" t="n">
-        <v>7422.873900000001</v>
+        <v>7053.6302</v>
       </c>
       <c r="AC14" t="n">
-        <v>8675.955600000001</v>
+        <v>8997.5262</v>
       </c>
       <c r="AD14" t="n">
-        <v>1979.1858</v>
+        <v>1711.1006</v>
       </c>
       <c r="AE14" t="n">
-        <v>5633.158099999999</v>
+        <v>5546.294800000001</v>
       </c>
       <c r="AF14" t="n">
-        <v>2881.1552</v>
+        <v>2640.9866</v>
       </c>
       <c r="AG14" t="n">
         <v>639152955</v>
@@ -1855,34 +1855,34 @@
         <v>89406413000</v>
       </c>
       <c r="E15" t="n">
-        <v>5.4020242905e+46</v>
+        <v>1.601264407306154e+49</v>
       </c>
       <c r="F15" t="n">
-        <v>130085.08</v>
+        <v>109862.141</v>
       </c>
       <c r="G15" t="n">
-        <v>25159.85</v>
+        <v>23985.262</v>
       </c>
       <c r="H15" t="n">
-        <v>455.7736</v>
+        <v>510.21721</v>
       </c>
       <c r="I15" t="n">
-        <v>78.57616899999999</v>
+        <v>77.024592</v>
       </c>
       <c r="J15" t="n">
-        <v>2576.9935</v>
+        <v>2563.345</v>
       </c>
       <c r="K15" t="n">
-        <v>333.60628</v>
+        <v>405.8044</v>
       </c>
       <c r="L15" t="n">
-        <v>10768.3235</v>
+        <v>11125.7058</v>
       </c>
       <c r="M15" t="n">
-        <v>4162.7593</v>
+        <v>4127.6507</v>
       </c>
       <c r="N15" t="n">
-        <v>10659.8866</v>
+        <v>7085.506100000001</v>
       </c>
       <c r="O15" t="n">
         <v>11992181700</v>
@@ -1891,52 +1891,52 @@
         <v>7654749400</v>
       </c>
       <c r="Q15" t="n">
-        <v>255245.623</v>
+        <v>216040.041</v>
       </c>
       <c r="R15" t="n">
-        <v>669804446.9170001</v>
+        <v>669804346.0880001</v>
       </c>
       <c r="S15" t="n">
-        <v>2266.7751</v>
+        <v>2215.9478</v>
       </c>
       <c r="T15" t="n">
-        <v>1222.01025</v>
+        <v>1049.66613</v>
       </c>
       <c r="U15" t="n">
-        <v>6308032.07</v>
+        <v>3795541.196</v>
       </c>
       <c r="V15" t="n">
         <v>1252958150</v>
       </c>
       <c r="W15" t="n">
-        <v>844.2805999999998</v>
+        <v>927.6884</v>
       </c>
       <c r="X15" t="n">
-        <v>563.3841</v>
+        <v>646.4526</v>
       </c>
       <c r="Y15" t="n">
-        <v>4925.8202</v>
+        <v>4747.5924</v>
       </c>
       <c r="Z15" t="n">
-        <v>1351.1335</v>
+        <v>1370.7427</v>
       </c>
       <c r="AA15" t="n">
-        <v>1250.9685</v>
+        <v>1163.11442</v>
       </c>
       <c r="AB15" t="n">
-        <v>7422.873900000001</v>
+        <v>7053.6302</v>
       </c>
       <c r="AC15" t="n">
-        <v>8594.2819</v>
+        <v>8559.897500000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>1882.2573</v>
+        <v>1634.3436</v>
       </c>
       <c r="AE15" t="n">
-        <v>5328.291200000001</v>
+        <v>5035.7233</v>
       </c>
       <c r="AF15" t="n">
-        <v>2659.0508</v>
+        <v>2618.805499999999</v>
       </c>
       <c r="AG15" t="n">
         <v>603936595</v>
@@ -1956,34 +1956,34 @@
         <v>86444650000</v>
       </c>
       <c r="E16" t="n">
-        <v>1.23756782598e+46</v>
+        <v>2.04720023334e+45</v>
       </c>
       <c r="F16" t="n">
-        <v>128404.18</v>
+        <v>109862.141</v>
       </c>
       <c r="G16" t="n">
-        <v>22711.906</v>
+        <v>21973.935</v>
       </c>
       <c r="H16" t="n">
-        <v>445.54564</v>
+        <v>440.63019</v>
       </c>
       <c r="I16" t="n">
-        <v>78.37628599999999</v>
+        <v>76.19047399999999</v>
       </c>
       <c r="J16" t="n">
-        <v>2521.6714</v>
+        <v>2486.1433</v>
       </c>
       <c r="K16" t="n">
-        <v>322.60895</v>
+        <v>369.07993</v>
       </c>
       <c r="L16" t="n">
-        <v>10728.0165</v>
+        <v>10776.1331</v>
       </c>
       <c r="M16" t="n">
-        <v>4106.0871</v>
+        <v>4096.3327</v>
       </c>
       <c r="N16" t="n">
-        <v>9515.618400000001</v>
+        <v>6694.958199999999</v>
       </c>
       <c r="O16" t="n">
         <v>11286694800</v>
@@ -1992,52 +1992,52 @@
         <v>5992438900</v>
       </c>
       <c r="Q16" t="n">
-        <v>226161.293</v>
+        <v>137912.251</v>
       </c>
       <c r="R16" t="n">
-        <v>498613406.917</v>
+        <v>498613306.088</v>
       </c>
       <c r="S16" t="n">
-        <v>2207.9363</v>
+        <v>2187.9945</v>
       </c>
       <c r="T16" t="n">
-        <v>1115.3715</v>
+        <v>919.1204599999999</v>
       </c>
       <c r="U16" t="n">
-        <v>5122547.07</v>
+        <v>2280712.096</v>
       </c>
       <c r="V16" t="n">
         <v>1195552610</v>
       </c>
       <c r="W16" t="n">
-        <v>844.2805999999998</v>
+        <v>858.95321</v>
       </c>
       <c r="X16" t="n">
-        <v>551.7276300000001</v>
+        <v>594.93834</v>
       </c>
       <c r="Y16" t="n">
-        <v>4869.4505</v>
+        <v>4640.792</v>
       </c>
       <c r="Z16" t="n">
-        <v>1324.5649</v>
+        <v>1277.3193</v>
       </c>
       <c r="AA16" t="n">
-        <v>1201.1292</v>
+        <v>1140.76412</v>
       </c>
       <c r="AB16" t="n">
-        <v>6959.1561</v>
+        <v>6589.912399999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>8579.341</v>
+        <v>8125.202200000002</v>
       </c>
       <c r="AD16" t="n">
-        <v>1760.9345</v>
+        <v>1550.277</v>
       </c>
       <c r="AE16" t="n">
-        <v>5328.291200000001</v>
+        <v>5035.7233</v>
       </c>
       <c r="AF16" t="n">
-        <v>2659.0508</v>
+        <v>2593.4862</v>
       </c>
       <c r="AG16" t="n">
         <v>535764235</v>
